--- a/Documents/DIYANA/EKSA/2025/Senarai Bahan Kimia & Consumables UAT (HMT)-EDIT.xlsx
+++ b/Documents/DIYANA/EKSA/2025/Senarai Bahan Kimia & Consumables UAT (HMT)-EDIT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.41.163.147\Users\gunasama\Documents\DIYANA\EKSA\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF23B962-F62B-4301-9F94-0A12248345FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2F4CFF-A327-4CEF-95AD-E151CE0FD24F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3249,7 +3249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3706,25 +3706,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3737,21 +3755,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -19702,17 +19705,19 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="48" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="94" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="94" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="94" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="94" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
@@ -19720,24 +19725,24 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" ht="20.25" customHeight="1">
       <c r="B2" s="21"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="2:8" ht="15.75">
-      <c r="B3" s="169" t="s">
+    <row r="3" spans="2:8" ht="29.25" customHeight="1">
+      <c r="B3" s="163" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="F3" s="169" t="s">
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="F3" s="163" t="s">
         <v>235</v>
       </c>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+    </row>
+    <row r="4" spans="2:8" ht="6" customHeight="1">
       <c r="B4" s="22"/>
       <c r="C4" s="146"/>
       <c r="D4" s="146"/>
@@ -19745,7 +19750,7 @@
       <c r="G4" s="146"/>
       <c r="H4" s="146"/>
     </row>
-    <row r="5" spans="2:8" s="94" customFormat="1" ht="31.5" customHeight="1">
+    <row r="5" spans="2:8" s="94" customFormat="1" ht="41.25" customHeight="1">
       <c r="B5" s="154" t="s">
         <v>236</v>
       </c>
@@ -19755,6 +19760,7 @@
       <c r="D5" s="151" t="s">
         <v>238</v>
       </c>
+      <c r="E5" s="158"/>
       <c r="F5" s="154" t="s">
         <v>236</v>
       </c>
@@ -19765,20 +19771,21 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="171">
+    <row r="6" spans="2:8" ht="15" customHeight="1">
+      <c r="B6" s="159">
         <v>1</v>
       </c>
-      <c r="C6" s="158" t="s">
+      <c r="C6" s="161" t="s">
         <v>239</v>
       </c>
       <c r="D6" s="147" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="171">
+      <c r="E6" s="48"/>
+      <c r="F6" s="159">
         <v>1</v>
       </c>
-      <c r="G6" s="158" t="s">
+      <c r="G6" s="161" t="s">
         <v>239</v>
       </c>
       <c r="H6" s="147" t="s">
@@ -19786,31 +19793,33 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="172"/>
-      <c r="C7" s="173"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="162"/>
       <c r="D7" s="147" t="s">
         <v>241</v>
       </c>
-      <c r="F7" s="172"/>
-      <c r="G7" s="173"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="162"/>
       <c r="H7" s="147" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="171">
+    <row r="8" spans="2:8" ht="15" customHeight="1">
+      <c r="B8" s="159">
         <v>2</v>
       </c>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="161" t="s">
         <v>239</v>
       </c>
       <c r="D8" s="147" t="s">
         <v>242</v>
       </c>
-      <c r="F8" s="171">
+      <c r="E8" s="48"/>
+      <c r="F8" s="159">
         <v>2</v>
       </c>
-      <c r="G8" s="158" t="s">
+      <c r="G8" s="161" t="s">
         <v>239</v>
       </c>
       <c r="H8" s="147" t="s">
@@ -19818,31 +19827,33 @@
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="172"/>
-      <c r="C9" s="173"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="162"/>
       <c r="D9" s="147" t="s">
         <v>243</v>
       </c>
-      <c r="F9" s="172"/>
-      <c r="G9" s="173"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="162"/>
       <c r="H9" s="147" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="171">
+    <row r="10" spans="2:8" ht="15" customHeight="1">
+      <c r="B10" s="159">
         <v>3</v>
       </c>
-      <c r="C10" s="158" t="s">
+      <c r="C10" s="161" t="s">
         <v>239</v>
       </c>
       <c r="D10" s="147" t="s">
         <v>244</v>
       </c>
-      <c r="F10" s="171">
+      <c r="E10" s="48"/>
+      <c r="F10" s="159">
         <v>3</v>
       </c>
-      <c r="G10" s="158" t="s">
+      <c r="G10" s="161" t="s">
         <v>239</v>
       </c>
       <c r="H10" s="147" t="s">
@@ -19850,31 +19861,33 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="172"/>
-      <c r="C11" s="173"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="162"/>
       <c r="D11" s="147" t="s">
         <v>243</v>
       </c>
-      <c r="F11" s="172"/>
-      <c r="G11" s="173"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="162"/>
       <c r="H11" s="147" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="171">
+    <row r="12" spans="2:8" ht="15" customHeight="1">
+      <c r="B12" s="159">
         <v>4</v>
       </c>
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="161" t="s">
         <v>245</v>
       </c>
       <c r="D12" s="148" t="s">
         <v>246</v>
       </c>
-      <c r="F12" s="171">
+      <c r="E12" s="48"/>
+      <c r="F12" s="159">
         <v>4</v>
       </c>
-      <c r="G12" s="158" t="s">
+      <c r="G12" s="161" t="s">
         <v>245</v>
       </c>
       <c r="H12" s="148" t="s">
@@ -19882,31 +19895,33 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="172"/>
-      <c r="C13" s="173"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="162"/>
       <c r="D13" s="148" t="s">
         <v>247</v>
       </c>
-      <c r="F13" s="172"/>
-      <c r="G13" s="173"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="162"/>
       <c r="H13" s="148" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="171">
+    <row r="14" spans="2:8" ht="15" customHeight="1">
+      <c r="B14" s="159">
         <v>5</v>
       </c>
-      <c r="C14" s="158" t="s">
+      <c r="C14" s="161" t="s">
         <v>245</v>
       </c>
       <c r="D14" s="148" t="s">
         <v>248</v>
       </c>
-      <c r="F14" s="171">
+      <c r="E14" s="48"/>
+      <c r="F14" s="159">
         <v>5</v>
       </c>
-      <c r="G14" s="158" t="s">
+      <c r="G14" s="161" t="s">
         <v>245</v>
       </c>
       <c r="H14" s="148" t="s">
@@ -19914,77 +19929,82 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="172"/>
-      <c r="C15" s="173"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="162"/>
       <c r="D15" s="148" t="s">
         <v>247</v>
       </c>
-      <c r="F15" s="172"/>
-      <c r="G15" s="173"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="162"/>
       <c r="H15" s="148" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="171">
+    <row r="16" spans="2:8" ht="22.5" customHeight="1">
+      <c r="B16" s="159">
         <v>6</v>
       </c>
-      <c r="C16" s="158" t="s">
+      <c r="C16" s="161" t="s">
         <v>249</v>
       </c>
       <c r="D16" s="149" t="s">
         <v>250</v>
       </c>
-      <c r="F16" s="171">
+      <c r="E16" s="48"/>
+      <c r="F16" s="159">
         <v>6</v>
       </c>
-      <c r="G16" s="158" t="s">
+      <c r="G16" s="161" t="s">
         <v>249</v>
       </c>
       <c r="H16" s="149" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="30" customHeight="1">
-      <c r="B17" s="172"/>
-      <c r="C17" s="173"/>
+    <row r="17" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B17" s="160"/>
+      <c r="C17" s="162"/>
       <c r="D17" s="149" t="s">
         <v>251</v>
       </c>
-      <c r="F17" s="172"/>
-      <c r="G17" s="173"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="162"/>
       <c r="H17" s="149" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="171">
+    <row r="18" spans="2:8" ht="22.5" customHeight="1">
+      <c r="B18" s="159">
         <v>7</v>
       </c>
-      <c r="C18" s="158" t="s">
+      <c r="C18" s="161" t="s">
         <v>249</v>
       </c>
       <c r="D18" s="149" t="s">
         <v>252</v>
       </c>
-      <c r="F18" s="171">
+      <c r="E18" s="48"/>
+      <c r="F18" s="159">
         <v>7</v>
       </c>
-      <c r="G18" s="158" t="s">
+      <c r="G18" s="161" t="s">
         <v>249</v>
       </c>
       <c r="H18" s="149" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="27" customHeight="1">
-      <c r="B19" s="172"/>
-      <c r="C19" s="173"/>
+    <row r="19" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B19" s="160"/>
+      <c r="C19" s="162"/>
       <c r="D19" s="149" t="s">
         <v>251</v>
       </c>
-      <c r="F19" s="172"/>
-      <c r="G19" s="173"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="162"/>
       <c r="H19" s="149" t="s">
         <v>251</v>
       </c>
@@ -19995,17 +20015,17 @@
       <c r="D20" s="16"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1">
-      <c r="B21" s="169" t="s">
+      <c r="B21" s="163" t="s">
         <v>235</v>
       </c>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="164"/>
       <c r="E21" s="48"/>
-      <c r="F21" s="169" t="s">
+      <c r="F21" s="163" t="s">
         <v>235</v>
       </c>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1">
       <c r="B22" s="22"/>
@@ -20038,20 +20058,20 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1">
-      <c r="B24" s="171">
+      <c r="B24" s="159">
         <v>1</v>
       </c>
-      <c r="C24" s="158" t="s">
+      <c r="C24" s="161" t="s">
         <v>239</v>
       </c>
       <c r="D24" s="147" t="s">
         <v>240</v>
       </c>
       <c r="E24" s="48"/>
-      <c r="F24" s="171">
+      <c r="F24" s="159">
         <v>1</v>
       </c>
-      <c r="G24" s="158" t="s">
+      <c r="G24" s="161" t="s">
         <v>239</v>
       </c>
       <c r="H24" s="147" t="s">
@@ -20059,33 +20079,33 @@
       </c>
     </row>
     <row r="25" spans="2:8" ht="15" customHeight="1">
-      <c r="B25" s="172"/>
-      <c r="C25" s="173"/>
+      <c r="B25" s="160"/>
+      <c r="C25" s="162"/>
       <c r="D25" s="147" t="s">
         <v>241</v>
       </c>
       <c r="E25" s="48"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="173"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="162"/>
       <c r="H25" s="147" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15" customHeight="1">
-      <c r="B26" s="171">
+      <c r="B26" s="159">
         <v>2</v>
       </c>
-      <c r="C26" s="158" t="s">
+      <c r="C26" s="161" t="s">
         <v>239</v>
       </c>
       <c r="D26" s="147" t="s">
         <v>242</v>
       </c>
       <c r="E26" s="48"/>
-      <c r="F26" s="171">
+      <c r="F26" s="159">
         <v>2</v>
       </c>
-      <c r="G26" s="158" t="s">
+      <c r="G26" s="161" t="s">
         <v>239</v>
       </c>
       <c r="H26" s="147" t="s">
@@ -20093,33 +20113,33 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="15" customHeight="1">
-      <c r="B27" s="172"/>
-      <c r="C27" s="173"/>
+      <c r="B27" s="160"/>
+      <c r="C27" s="162"/>
       <c r="D27" s="147" t="s">
         <v>243</v>
       </c>
       <c r="E27" s="48"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="173"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="162"/>
       <c r="H27" s="147" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15" customHeight="1">
-      <c r="B28" s="171">
+      <c r="B28" s="159">
         <v>3</v>
       </c>
-      <c r="C28" s="158" t="s">
+      <c r="C28" s="161" t="s">
         <v>239</v>
       </c>
       <c r="D28" s="147" t="s">
         <v>244</v>
       </c>
       <c r="E28" s="48"/>
-      <c r="F28" s="171">
+      <c r="F28" s="159">
         <v>3</v>
       </c>
-      <c r="G28" s="158" t="s">
+      <c r="G28" s="161" t="s">
         <v>239</v>
       </c>
       <c r="H28" s="147" t="s">
@@ -20127,33 +20147,33 @@
       </c>
     </row>
     <row r="29" spans="2:8" ht="15" customHeight="1">
-      <c r="B29" s="172"/>
-      <c r="C29" s="173"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="162"/>
       <c r="D29" s="147" t="s">
         <v>243</v>
       </c>
       <c r="E29" s="48"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="173"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="162"/>
       <c r="H29" s="147" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15" customHeight="1">
-      <c r="B30" s="171">
+      <c r="B30" s="159">
         <v>4</v>
       </c>
-      <c r="C30" s="158" t="s">
+      <c r="C30" s="161" t="s">
         <v>245</v>
       </c>
       <c r="D30" s="148" t="s">
         <v>246</v>
       </c>
       <c r="E30" s="48"/>
-      <c r="F30" s="171">
+      <c r="F30" s="159">
         <v>4</v>
       </c>
-      <c r="G30" s="158" t="s">
+      <c r="G30" s="161" t="s">
         <v>245</v>
       </c>
       <c r="H30" s="148" t="s">
@@ -20161,33 +20181,33 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="15" customHeight="1">
-      <c r="B31" s="172"/>
-      <c r="C31" s="173"/>
+      <c r="B31" s="160"/>
+      <c r="C31" s="162"/>
       <c r="D31" s="148" t="s">
         <v>247</v>
       </c>
       <c r="E31" s="48"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="173"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="162"/>
       <c r="H31" s="148" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15" customHeight="1">
-      <c r="B32" s="171">
+      <c r="B32" s="159">
         <v>5</v>
       </c>
-      <c r="C32" s="158" t="s">
+      <c r="C32" s="161" t="s">
         <v>245</v>
       </c>
       <c r="D32" s="148" t="s">
         <v>248</v>
       </c>
       <c r="E32" s="48"/>
-      <c r="F32" s="171">
+      <c r="F32" s="159">
         <v>5</v>
       </c>
-      <c r="G32" s="158" t="s">
+      <c r="G32" s="161" t="s">
         <v>245</v>
       </c>
       <c r="H32" s="148" t="s">
@@ -20195,88 +20215,132 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="15" customHeight="1">
-      <c r="B33" s="172"/>
-      <c r="C33" s="173"/>
+      <c r="B33" s="160"/>
+      <c r="C33" s="162"/>
       <c r="D33" s="148" t="s">
         <v>247</v>
       </c>
       <c r="E33" s="48"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="173"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="162"/>
       <c r="H33" s="148" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="15" customHeight="1">
-      <c r="B34" s="171">
+    <row r="34" spans="2:8" ht="25.5" customHeight="1">
+      <c r="B34" s="159">
         <v>6</v>
       </c>
-      <c r="C34" s="158" t="s">
+      <c r="C34" s="161" t="s">
         <v>249</v>
       </c>
       <c r="D34" s="149" t="s">
         <v>250</v>
       </c>
       <c r="E34" s="48"/>
-      <c r="F34" s="171">
+      <c r="F34" s="159">
         <v>6</v>
       </c>
-      <c r="G34" s="158" t="s">
+      <c r="G34" s="161" t="s">
         <v>249</v>
       </c>
       <c r="H34" s="149" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="15" customHeight="1">
-      <c r="B35" s="172"/>
-      <c r="C35" s="173"/>
+    <row r="35" spans="2:8" ht="21.75" customHeight="1">
+      <c r="B35" s="160"/>
+      <c r="C35" s="162"/>
       <c r="D35" s="149" t="s">
         <v>251</v>
       </c>
       <c r="E35" s="48"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="173"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="162"/>
       <c r="H35" s="149" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="15" customHeight="1">
-      <c r="B36" s="171">
+    <row r="36" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B36" s="159">
         <v>7</v>
       </c>
-      <c r="C36" s="158" t="s">
+      <c r="C36" s="161" t="s">
         <v>249</v>
       </c>
       <c r="D36" s="149" t="s">
         <v>252</v>
       </c>
       <c r="E36" s="48"/>
-      <c r="F36" s="171">
+      <c r="F36" s="159">
         <v>7</v>
       </c>
-      <c r="G36" s="158" t="s">
+      <c r="G36" s="161" t="s">
         <v>249</v>
       </c>
       <c r="H36" s="149" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="15" customHeight="1">
-      <c r="B37" s="172"/>
-      <c r="C37" s="173"/>
+    <row r="37" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B37" s="160"/>
+      <c r="C37" s="162"/>
       <c r="D37" s="149" t="s">
         <v>251</v>
       </c>
       <c r="E37" s="48"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="173"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="162"/>
       <c r="H37" s="149" t="s">
         <v>251</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="F36:F37"/>
@@ -20293,50 +20357,6 @@
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20403,12 +20423,12 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="21"/>
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="170" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -20470,16 +20490,16 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="23"/>
-      <c r="B6" s="161">
+      <c r="B6" s="167">
         <v>1</v>
       </c>
-      <c r="C6" s="158" t="s">
+      <c r="C6" s="161" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="162" t="s">
+      <c r="D6" s="169" t="s">
         <v>255</v>
       </c>
-      <c r="E6" s="163"/>
+      <c r="E6" s="165"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -20495,10 +20515,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="23"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="164"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="166"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -20514,16 +20534,16 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="23"/>
-      <c r="B8" s="161">
+      <c r="B8" s="167">
         <v>2</v>
       </c>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="161" t="s">
         <v>256</v>
       </c>
-      <c r="D8" s="162" t="s">
+      <c r="D8" s="169" t="s">
         <v>257</v>
       </c>
-      <c r="E8" s="166"/>
+      <c r="E8" s="172"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
@@ -20539,10 +20559,10 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="23"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -20558,16 +20578,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="23"/>
-      <c r="B10" s="161">
+      <c r="B10" s="167">
         <v>3</v>
       </c>
-      <c r="C10" s="158" t="s">
+      <c r="C10" s="161" t="s">
         <v>258</v>
       </c>
-      <c r="D10" s="162">
+      <c r="D10" s="169">
         <v>160796852</v>
       </c>
-      <c r="E10" s="163"/>
+      <c r="E10" s="165"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
@@ -20583,10 +20603,10 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="23"/>
-      <c r="B11" s="159"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="164"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="166"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
@@ -20602,16 +20622,16 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="23"/>
-      <c r="B12" s="161">
+      <c r="B12" s="167">
         <v>4</v>
       </c>
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="161" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="162">
+      <c r="D12" s="169">
         <v>160796863</v>
       </c>
-      <c r="E12" s="163"/>
+      <c r="E12" s="165"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
@@ -20627,10 +20647,10 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="23"/>
-      <c r="B13" s="159"/>
-      <c r="C13" s="159"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="164"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="166"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
@@ -39361,16 +39381,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
@@ -39378,6 +39388,16 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39427,12 +39447,12 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="21"/>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="170" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -39503,16 +39523,16 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="23"/>
-      <c r="B5" s="161">
+      <c r="B5" s="167">
         <v>1</v>
       </c>
-      <c r="C5" s="158" t="s">
+      <c r="C5" s="161" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="167">
+      <c r="D5" s="173">
         <v>150736002</v>
       </c>
-      <c r="E5" s="168"/>
+      <c r="E5" s="174"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -39531,10 +39551,10 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="23"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="164"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="166"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -39553,16 +39573,16 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="23"/>
-      <c r="B7" s="161">
+      <c r="B7" s="167">
         <v>2</v>
       </c>
-      <c r="C7" s="158" t="s">
+      <c r="C7" s="161" t="s">
         <v>262</v>
       </c>
-      <c r="D7" s="167">
+      <c r="D7" s="173">
         <v>150187237</v>
       </c>
-      <c r="E7" s="168"/>
+      <c r="E7" s="174"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -39581,10 +39601,10 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="23"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="164"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="166"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
@@ -39603,16 +39623,16 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="23"/>
-      <c r="B9" s="161">
+      <c r="B9" s="167">
         <v>3</v>
       </c>
-      <c r="C9" s="158" t="s">
+      <c r="C9" s="161" t="s">
         <v>263</v>
       </c>
-      <c r="D9" s="167">
+      <c r="D9" s="173">
         <v>150735997</v>
       </c>
-      <c r="E9" s="168"/>
+      <c r="E9" s="174"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -39631,10 +39651,10 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="23"/>
-      <c r="B10" s="159"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="164"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="166"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
@@ -39653,16 +39673,16 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="23"/>
-      <c r="B11" s="161">
+      <c r="B11" s="167">
         <v>4</v>
       </c>
-      <c r="C11" s="158" t="s">
+      <c r="C11" s="161" t="s">
         <v>264</v>
       </c>
-      <c r="D11" s="167">
+      <c r="D11" s="173">
         <v>240123396</v>
       </c>
-      <c r="E11" s="168" t="s">
+      <c r="E11" s="174" t="s">
         <v>265</v>
       </c>
       <c r="F11" s="21"/>
@@ -39683,10 +39703,10 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="23"/>
-      <c r="B12" s="159"/>
-      <c r="C12" s="159"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="164"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="166"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
@@ -39705,16 +39725,16 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="23"/>
-      <c r="B13" s="161">
+      <c r="B13" s="167">
         <v>5</v>
       </c>
-      <c r="C13" s="158" t="s">
+      <c r="C13" s="161" t="s">
         <v>264</v>
       </c>
-      <c r="D13" s="167">
+      <c r="D13" s="173">
         <v>240123408</v>
       </c>
-      <c r="E13" s="168" t="s">
+      <c r="E13" s="174" t="s">
         <v>265</v>
       </c>
       <c r="F13" s="21"/>
@@ -39735,10 +39755,10 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="23"/>
-      <c r="B14" s="159"/>
-      <c r="C14" s="159"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="164"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="166"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
@@ -61405,11 +61425,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
@@ -61426,6 +61441,11 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
